--- a/files for project/DB data.xlsx
+++ b/files for project/DB data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\MoviesReview\filesForProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\MoviesReview\files for project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{932AC08A-2E16-48C9-8F75-6C813686D947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60598AC6-7B60-47DD-A8E2-57ABDBFCC3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
   <si>
     <t>id</t>
   </si>
@@ -51,9 +51,6 @@
     <t>kind</t>
   </si>
   <si>
-    <t>age</t>
-  </si>
-  <si>
     <t>duration</t>
   </si>
   <si>
@@ -67,13 +64,169 @@
   </si>
   <si>
     <t>contry</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>main kind</t>
+  </si>
+  <si>
+    <t>The Office</t>
+  </si>
+  <si>
+    <t>Hangover</t>
+  </si>
+  <si>
+    <t>7.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve">June 5, 2009 </t>
+  </si>
+  <si>
+    <t>USA</t>
+  </si>
+  <si>
+    <t>Comedy</t>
+  </si>
+  <si>
+    <t>1hr 40min</t>
+  </si>
+  <si>
+    <t>Bradley Cooper, Ed Helms, Zach Galifianaki</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mean Girls </t>
+  </si>
+  <si>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>April 30, 2004</t>
+  </si>
+  <si>
+    <t>Comedy, Drama</t>
+  </si>
+  <si>
+    <t>1hr 37min</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan, Rachel McAdams, Tina Fey</t>
+  </si>
+  <si>
+    <t>8.8</t>
+  </si>
+  <si>
+    <t>March 24, 2005</t>
+  </si>
+  <si>
+    <t>United States</t>
+  </si>
+  <si>
+    <t>Sitcom, Comedy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">9 seasons (22 minutes) </t>
+  </si>
+  <si>
+    <t>Steve Carell, Jenna Fischer, John Krasinski, Rainn Wilson</t>
+  </si>
+  <si>
+    <t>8.4</t>
+  </si>
+  <si>
+    <t>Brooklyn Nine-Nine</t>
+  </si>
+  <si>
+    <t>September 17, 2013</t>
+  </si>
+  <si>
+    <t>6 seasons (22 minutes)</t>
+  </si>
+  <si>
+    <t>Andy Samberg, Stephanie Beatriz, Terry Crews, Melissa Fumero</t>
+  </si>
+  <si>
+    <t>Friends</t>
+  </si>
+  <si>
+    <t>8.9</t>
+  </si>
+  <si>
+    <t>September 22, 1994</t>
+  </si>
+  <si>
+    <t>10 seasons (22 minutes)</t>
+  </si>
+  <si>
+    <t>Jennifer Aniston, Courteney Cox, Lisa Kudrow, Matt LeBlanc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=4jk43p4IBQc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QqVFXyaRL90</t>
+  </si>
+  <si>
+    <t>Angelenos Doug Billings and Tracy Garner are about to get married. Two days before the wedding, the four men in the wedding party - Doug, Doug's two best buddies Phil Wenneck and Stu Price, and Tracy's brother Alan Garner - hop into Tracy's father's beloved Mercedes convertible for a 24-hour stag party to Las Vegas. Phil, a married high school teacher, has the same maturity level as his students when he's with his pals. Stu, a dentist, is worried about everything, especially what his controlling girlfriend Melissa thinks. Because she disapproves of traditional male bonding rituals, Stu has to lie to her about the stag, he telling her that they are going on a wine tasting tour in the Napa Valley. Regardless, he intends on eventually marrying her, against the advice and wishes of his friends. And Alan seems to be unaware of what are considered the social graces of the western world. The morning after their arrival in Las Vegas, they awaken in their hotel suite each with the worst hangover. None remembers what happened in the past twelve or so hours. The suite is in shambles. And certain things are in the suite that shouldn't be, and certain things that should be in the suite are missing. Probably the most important in the latter category is Doug. As Phil, Stu and Alan try to find Doug using only what little pieces of information they have at hand, they go on a journey of discovery of how certain things got into the suite and what happened to the missing items. However they are on a race for time as if they can't find Doug in the next few hours, they are going to have to explain to Tracy why they are not yet back in Los Angeles. And even worse, they may not find Doug at all before the weddin</t>
+  </si>
+  <si>
+    <t>film</t>
+  </si>
+  <si>
+    <t>comedy</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=3raLsO_LVVc</t>
+  </si>
+  <si>
+    <t>https://youtu.be/oDU84nmSDZY</t>
+  </si>
+  <si>
+    <t>Lindsay Lohan stars as Cady Heron, a 16 year old homeschooled girl who not only makes the mistake of falling for Aaron Samuels (Jonathan Bennett), the ex-boyfriend of queenbee Regina George (Rachel McAdams), but also unintentionally joins The Plastics, led by Regina herself. Join Cady as she learns that high school life can and will be really tough.</t>
+  </si>
+  <si>
+    <t>https://www.primevideo.com/dp/amzn1.dv.gti.7cb027c1-a767-2c73-f659-9fcb9d1064a7?autoplay=0&amp;ref_=atv_cf_strg_wb</t>
+  </si>
+  <si>
+    <t>https://youtu.be/2iKZmRR9AR4</t>
+  </si>
+  <si>
+    <t>A mediocre paper company in the hands of Scranton, PA branch manager Michael Scott. This mockumentary follows the everyday lives of the manager and the employees he "manages." The crew follows the employees around 24/7 and captures their quite humorous and bizarre encounters as they will do what it takes to keep the company thriving.</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/watch/70281562?source=35</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=icTOP9F17pU</t>
+  </si>
+  <si>
+    <t>Captain Ray Holt takes over Brooklyn's 99th precinct, which includes Detective Jake Peralta, a talented but carefree detective who's used to doing whatever he wants. The other employees of the 99th precinct include Detective Amy Santiago, Jake's over achieving and competitive partner; Detective Rosa Diaz, a tough and kept to herself coworker; Detective Charles Boyle, Jake's best friend who also has crush on Rosa; Detective Sergeant Terry Jeffords, who was recently taken off the field after the birth of his twin girls; and Gina Linetti, the precinct's sarcastic administrator.</t>
+  </si>
+  <si>
+    <t>serial</t>
+  </si>
+  <si>
+    <t>https://www.netflix.com/in/title/70153404</t>
+  </si>
+  <si>
+    <t>https://youtu.be/IEEbUzffzrk</t>
+  </si>
+  <si>
+    <t>Ross Geller, Rachel Green, Monica Geller, Joey Tribbiani, Chandler Bing, and Phoebe Buffay are six twenty-somethings living in New York City. Over the course of 10 years and seasons, these friends go through life lessons, family, love, drama, friendship, and comedy.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,6 +242,19 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Roboto"/>
     </font>
   </fonts>
   <fills count="2">
@@ -134,15 +300,25 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Гіперпосилання" xfId="1" builtinId="8"/>
     <cellStyle name="Звичайний" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -421,73 +597,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N2"/>
+  <dimension ref="A1:P6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="4.109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.88671875" style="1" customWidth="1"/>
-    <col min="4" max="7" width="8.88671875" style="1"/>
-    <col min="8" max="8" width="17.77734375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="8.88671875" style="1"/>
-    <col min="10" max="10" width="17.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="8.88671875" style="1"/>
-    <col min="12" max="12" width="17.6640625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="17.77734375" style="1" customWidth="1"/>
-    <col min="14" max="14" width="35.44140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="6" style="3" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="12" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.77734375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="5.77734375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="17.44140625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
+    <col min="10" max="10" width="23.88671875" style="3" customWidth="1"/>
+    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
+    <col min="12" max="12" width="35.33203125" style="3" customWidth="1"/>
+    <col min="13" max="13" width="35.44140625" style="3" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
+    <col min="15" max="15" width="9.88671875" style="3" customWidth="1"/>
+    <col min="16" max="16" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="B1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>11</v>
+      <c r="O1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="5" t="s">
+        <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="3">
+        <v>2</v>
+      </c>
+      <c r="D2" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>1</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="3">
+        <v>2</v>
+      </c>
+      <c r="D3" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="M3" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P3" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>2</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2</v>
+      </c>
+      <c r="D4" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="G4" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="M4" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P4" s="3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>3</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" s="3">
+        <v>2</v>
+      </c>
+      <c r="D5" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I5" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M5" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P5" s="3" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>4</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3">
+        <v>2</v>
+      </c>
+      <c r="D6" s="3" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P6" s="3" t="b">
         <v>0</v>
       </c>
     </row>

--- a/files for project/DB data.xlsx
+++ b/files for project/DB data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Android\MoviesReview\files for project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60598AC6-7B60-47DD-A8E2-57ABDBFCC3A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEC4A296-11D3-4903-95C4-B820036AF0E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
   <si>
     <t>id</t>
   </si>
@@ -217,6 +217,21 @@
   </si>
   <si>
     <t>Ross Geller, Rachel Green, Monica Geller, Joey Tribbiani, Chandler Bing, and Phoebe Buffay are six twenty-somethings living in New York City. Over the course of 10 years and seasons, these friends go through life lessons, family, love, drama, friendship, and comedy.</t>
+  </si>
+  <si>
+    <t>poster0</t>
+  </si>
+  <si>
+    <t>poster2</t>
+  </si>
+  <si>
+    <t>poster4</t>
+  </si>
+  <si>
+    <t>poster1</t>
+  </si>
+  <si>
+    <t>poster3</t>
   </si>
 </sst>
 </file>
@@ -226,7 +241,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -255,6 +270,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Roboto"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -597,33 +618,33 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P6"/>
+  <dimension ref="A1:Q6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q6" sqref="B3:Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="4.109375" style="3" customWidth="1"/>
     <col min="2" max="2" width="23.109375" style="3" customWidth="1"/>
-    <col min="3" max="3" width="6" style="3" customWidth="1"/>
-    <col min="4" max="4" width="6.109375" style="3" customWidth="1"/>
-    <col min="5" max="5" width="12" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="4" customWidth="1"/>
-    <col min="7" max="7" width="5.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="17.44140625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="10.77734375" style="3" customWidth="1"/>
-    <col min="10" max="10" width="23.88671875" style="3" customWidth="1"/>
-    <col min="11" max="11" width="10.77734375" style="3" customWidth="1"/>
-    <col min="12" max="12" width="35.33203125" style="3" customWidth="1"/>
-    <col min="13" max="13" width="35.44140625" style="3" customWidth="1"/>
-    <col min="14" max="14" width="8.88671875" style="3"/>
-    <col min="15" max="15" width="9.88671875" style="3" customWidth="1"/>
-    <col min="16" max="16" width="8.88671875" style="3"/>
+    <col min="3" max="4" width="19.77734375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="6.109375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12" style="3" customWidth="1"/>
+    <col min="7" max="7" width="11.77734375" style="4" customWidth="1"/>
+    <col min="8" max="8" width="5.77734375" style="9" customWidth="1"/>
+    <col min="9" max="9" width="17.44140625" style="3" customWidth="1"/>
+    <col min="10" max="10" width="10.77734375" style="3" customWidth="1"/>
+    <col min="11" max="11" width="23.88671875" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.77734375" style="3" customWidth="1"/>
+    <col min="13" max="13" width="35.33203125" style="3" customWidth="1"/>
+    <col min="14" max="14" width="35.44140625" style="3" customWidth="1"/>
+    <col min="15" max="15" width="8.88671875" style="3"/>
+    <col min="16" max="16" width="9.88671875" style="3" customWidth="1"/>
+    <col min="17" max="17" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -633,297 +654,299 @@
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="1"/>
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="H1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="3">
+      <c r="C2" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="3">
-        <v>2</v>
-      </c>
-      <c r="D3" s="3" t="b">
+      <c r="C3" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="3">
         <v>0</v>
       </c>
-      <c r="E3" s="6" t="s">
+      <c r="F3" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="G3" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="J3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="8" t="s">
+      <c r="N3" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P3" s="3" t="b">
+      <c r="Q3" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
-        <v>2</v>
-      </c>
-      <c r="D4" s="3" t="b">
+      <c r="C4" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="E4" s="3">
         <v>0</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="G4" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="N4" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="O4" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="P4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P4" s="3" t="b">
+      <c r="Q4" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="C5" s="3">
-        <v>2</v>
-      </c>
-      <c r="D5" s="3" t="b">
+      <c r="C5" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="3">
         <v>0</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="G5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="J5" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="K5" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="L5" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="M5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="N5" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="O5" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="P5" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P5" s="3" t="b">
+      <c r="Q5" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C6" s="3">
-        <v>2</v>
-      </c>
-      <c r="D6" s="3" t="b">
+      <c r="C6" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E6" s="3">
         <v>0</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="G6" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="H6" s="3" t="s">
+      <c r="I6" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="J6" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="K6" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="L6" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="M6" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="8" t="s">
+      <c r="N6" s="8" t="s">
         <v>63</v>
       </c>
-      <c r="N6" s="3" t="s">
+      <c r="O6" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="P6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="P6" s="3" t="b">
+      <c r="Q6" s="3">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
